--- a/Desnormalización de la base de datos.xlsx
+++ b/Desnormalización de la base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Proyecto-Data-WareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3DFBA-609D-4227-BA56-0800D0A5373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C21DF-F4B3-4CBF-8982-B4836BC36055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="6150" windowWidth="29040" windowHeight="16440" xr2:uid="{C1B57FCB-8E1F-472F-B510-2EC42A2973EB}"/>
+    <workbookView xWindow="-16305" yWindow="-1050" windowWidth="16410" windowHeight="11835" xr2:uid="{C1B57FCB-8E1F-472F-B510-2EC42A2973EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Staging Area" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Tablas de Dimenciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>ID_TIPO_MED</t>
   </si>
@@ -193,79 +192,22 @@
     <t>2) Se elimino ID Persona de la tabla ID Cliente, para eliminar duplicados</t>
   </si>
   <si>
-    <t>FECHA_INICIO_EMPLEADO</t>
-  </si>
-  <si>
-    <t>FECHA_INICIO_CLIENTES</t>
-  </si>
-  <si>
-    <t>FECHA_INICIO_DISTRIBUIDOR</t>
-  </si>
-  <si>
-    <t>FECHA_CADUCIDAD_MEDICAMENTO</t>
-  </si>
-  <si>
     <t>FECHA_RECETA_MEDICA</t>
   </si>
   <si>
-    <t>FECHA_INICIO_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>FECHA_NACIMIENTO_PERSONA</t>
-  </si>
-  <si>
     <t>FAC_FARMACIA</t>
   </si>
   <si>
-    <t>DIM_CATEGORIA_MEDICAMENTO</t>
-  </si>
-  <si>
-    <t>DIM_PROVEEDOR</t>
-  </si>
-  <si>
-    <t>DIM_PERSONA</t>
-  </si>
-  <si>
-    <t>DIM_FARMACIA</t>
-  </si>
-  <si>
     <t>DIM_EMPLEADO</t>
   </si>
   <si>
     <t>DIM_CLIENTES</t>
   </si>
   <si>
-    <t>DIM_MEDICAMENTO</t>
-  </si>
-  <si>
-    <t>DIM_RECETA_MEDICA</t>
-  </si>
-  <si>
-    <t>DIM_PRECAUCIÓN</t>
-  </si>
-  <si>
-    <t>DIM_FECHA</t>
-  </si>
-  <si>
-    <t>FECHA_ID</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>TRIMESTRE</t>
-  </si>
-  <si>
-    <t>ETC ..</t>
-  </si>
-  <si>
     <t>- Se eliminan ya que las tablas estan conformadas por ID unicamente</t>
+  </si>
+  <si>
+    <t>My main date</t>
   </si>
 </sst>
 </file>
@@ -281,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,25 +303,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,9 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7C5B2D-B036-413B-9827-29AD6B16810B}">
-  <dimension ref="B2:AW7"/>
+  <dimension ref="B2:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU7" sqref="AU7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -740,237 +696,243 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2" t="s">
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2" t="s">
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2" t="s">
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AK3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AL3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AM3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AP3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AR3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AS3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AU3" s="5" t="s">
+      <c r="AU3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AV3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AW3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -993,9 +955,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD3681-06EC-4C03-AC52-5D85594E161C}">
-  <dimension ref="B2:Y7"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,137 +975,102 @@
     <col min="10" max="10" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1149,220 +1078,256 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABC4CB5-5F36-40CD-9576-3F0AE07CFCD9}">
-  <dimension ref="B2:AC9"/>
+  <dimension ref="B1:AF9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AC41" sqref="AC41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AD1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="AC3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="AF3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:Y2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Desnormalización de la base de datos.xlsx
+++ b/Desnormalización de la base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Proyecto-Data-WareHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C21DF-F4B3-4CBF-8982-B4836BC36055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF44A4D-B193-409F-A0CA-8139B5A2FF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-1050" windowWidth="16410" windowHeight="11835" xr2:uid="{C1B57FCB-8E1F-472F-B510-2EC42A2973EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C1B57FCB-8E1F-472F-B510-2EC42A2973EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Staging Area" sheetId="1" r:id="rId1"/>
@@ -313,15 +313,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7C5B2D-B036-413B-9827-29AD6B16810B}">
   <dimension ref="B2:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,74 +696,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
     </row>
     <row r="3" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -895,7 +895,7 @@
       <c r="AR3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="3" t="s">
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="8" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
@@ -958,7 +958,7 @@
   <dimension ref="B2:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,25 +985,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1054,7 +1054,7 @@
       <c r="Q3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1126,57 +1126,57 @@
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1274,12 +1274,12 @@
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
@@ -1287,15 +1287,15 @@
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -1316,6 +1316,8 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -1326,8 +1328,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
